--- a/src/test/resources/resources/testData.xlsx
+++ b/src/test/resources/resources/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Lava</t>
   </si>
@@ -67,13 +67,15 @@
   </si>
   <si>
     <t>PF</t>
+  </si>
+  <si>
+    <t>interestRate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,23 +408,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="83.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="83.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -453,8 +455,11 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,6 +489,9 @@
       </c>
       <c r="J2">
         <v>100</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/resources/testData.xlsx
+++ b/src/test/resources/resources/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Lava</t>
   </si>
@@ -70,12 +70,19 @@
   </si>
   <si>
     <t>interestRate</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>Mutal Fund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,20 +415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="83.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="83.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -492,6 +499,37 @@
       </c>
       <c r="K2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
